--- a/Employee_Records.xlsx
+++ b/Employee_Records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,12 +458,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ARUN</t>
+          <t>JOHN SMITH</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -472,107 +472,287 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>600000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>OLIVIA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>DEVELOPER</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>64000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>NOAH HALL</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>ANALYST</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>59000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Z</t>
+          <t>EMMA ADAMS</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>DESIGNER</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>61000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>ETHAN GREEN</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>SUPPORT</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>51000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>AVA SCOTT</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LOAG </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>TESTER</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>56000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>SARAH LEE</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>DEVELOPER</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>DAVID KIM</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>DESIGNER</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ALICE BROWN</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>ANALYST</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>58000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>8</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>MICHAEL CHEN</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>TESTER</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>EMILY DAVIS</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>DEVELOPER</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CHRIS WILSON</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>SUPPORT</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>NINA PATEL</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>53000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>LIAM WRIGHT</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>MANAGER</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>77000</v>
       </c>
     </row>
   </sheetData>

--- a/Employee_Records.xlsx
+++ b/Employee_Records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -598,160 +598,200 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SARAH LEE</t>
+          <t>polam</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DEVELOPER</t>
+          <t>server</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>65000</v>
+        <v>52000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DAVID KIM</t>
+          <t>SARAH LEE</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DESIGNER</t>
+          <t>DEVELOPER</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>60000</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ALICE BROWN</t>
+          <t>p</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ANALYST</t>
+          <t>l</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>58000</v>
+        <v>85000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MICHAEL CHEN</t>
+          <t>DAVID KIM</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>TESTER</t>
+          <t>DESIGNER</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>55000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>EMILY DAVIS</t>
+          <t>ALICE BROWN</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DEVELOPER</t>
+          <t>ANALYST</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>62000</v>
+        <v>58000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CHRIS WILSON</t>
+          <t>MICHAEL CHEN</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>SUPPORT</t>
+          <t>TESTER</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>50000</v>
+        <v>55000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NINA PATEL</t>
+          <t>EMILY DAVIS</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>DEVELOPER</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>53000</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>CHRIS WILSON</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>SUPPORT</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>NINA PATEL</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>53000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>LIAM WRIGHT</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>MANAGER</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="D18" t="n">
         <v>77000</v>
       </c>
     </row>
